--- a/data_year/zb/价格指数/按工业行业分工业生产者出厂价格指数(上年=100)(2012-).xlsx
+++ b/data_year/zb/价格指数/按工业行业分工业生产者出厂价格指数(上年=100)(2012-).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ10"/>
+  <dimension ref="A1:AQ12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -682,7 +682,7 @@
         <v>101.6538</v>
       </c>
       <c r="L2" t="n">
-        <v>98.282</v>
+        <v>98.3</v>
       </c>
       <c r="M2" t="n">
         <v>92.1661</v>
@@ -1830,6 +1830,268 @@
       </c>
       <c r="AQ10" t="n">
         <v>106.9693</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="D11" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>103.9</v>
+      </c>
+      <c r="G11" t="n">
+        <v>119.1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>116.1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>108.1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>117.5</v>
+      </c>
+      <c r="N11" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="O11" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="P11" t="n">
+        <v>122.7</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>113.1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>103.2</v>
+      </c>
+      <c r="T11" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="U11" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="V11" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="W11" t="n">
+        <v>145.1</v>
+      </c>
+      <c r="X11" t="n">
+        <v>105.1</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>104.4</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>128.2</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>138.7</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>104.1</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>104.9</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>106.7</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>103.7</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>103.1</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>101.8</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>128.5</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100.7413</v>
+      </c>
+      <c r="C12" t="n">
+        <v>101.5392</v>
+      </c>
+      <c r="D12" t="n">
+        <v>102.1574</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>104.7353</v>
+      </c>
+      <c r="G12" t="n">
+        <v>107.6503</v>
+      </c>
+      <c r="H12" t="n">
+        <v>104.1173</v>
+      </c>
+      <c r="I12" t="n">
+        <v>100.3221</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100.9705</v>
+      </c>
+      <c r="K12" t="n">
+        <v>101.7138</v>
+      </c>
+      <c r="L12" t="n">
+        <v>104.1254</v>
+      </c>
+      <c r="M12" t="n">
+        <v>103.1563</v>
+      </c>
+      <c r="N12" t="n">
+        <v>98.9834</v>
+      </c>
+      <c r="O12" t="n">
+        <v>103.2351</v>
+      </c>
+      <c r="P12" t="n">
+        <v>105.4445</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>108.3083</v>
+      </c>
+      <c r="R12" t="n">
+        <v>101.7589</v>
+      </c>
+      <c r="S12" t="n">
+        <v>101.2981</v>
+      </c>
+      <c r="T12" t="n">
+        <v>101.2704</v>
+      </c>
+      <c r="U12" t="n">
+        <v>100.1893</v>
+      </c>
+      <c r="V12" t="n">
+        <v>100.6374</v>
+      </c>
+      <c r="W12" t="n">
+        <v>117.0156</v>
+      </c>
+      <c r="X12" t="n">
+        <v>115.8872</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>108.5743</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>104.5709</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>101.7804</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>123.574</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>135.896</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>103.6331</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>101.2861</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>100.6655</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>101.1452</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>100.629</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>100.9817</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>102.0971</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>102.2142</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>101.4779</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>101.1858</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>105.8546</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>103.7321</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>94.18989999999999</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>84.6237</v>
       </c>
     </row>
   </sheetData>
